--- a/docs/ST3a/ST3a_30.07.24d_output.xlsx
+++ b/docs/ST3a/ST3a_30.07.24d_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,4503 +505,5347 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731319425.9279785</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731319428.5052812</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731319425.9279785.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731319428.5052812.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>286.67</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>286.7</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.02999999999997272</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731319428.9180627</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731319429.7586644</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731319428.9180627.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731319429.7586644.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>287.59</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>287.44</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1499999999999773</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731319429.7716298</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731319434.4167233</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731319429.7716298.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731319434.4167233.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>287.44</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>288.49</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.050000000000011</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731319444.20327</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731319444.20327.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731319444.20327.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>289.8</v>
       </c>
-      <c r="J6" t="n">
-        <v>289.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>290.84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1.039999999999964</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731319447.4946759</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731319447.6242223</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731319447.4946759.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731319447.6242223.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>130.79</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.56</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.7700000000000102</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731319448.0245733</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731319448.4564297</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731319448.0245733.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731319448.4564297.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>130.92</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>131</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731319457.135325</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731319460.6929774</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731319457.135325.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731319460.6929774.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.74</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>133.13</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.3899999999999864</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731319465.4764786</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731319466.0451443</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731319465.4764786.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731319466.0451443.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>133.87</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>133.58</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.289999999999992</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731319466.0601022</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731319466.0601022.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731319466.0601022.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>133.58</v>
       </c>
-      <c r="J11" t="n">
-        <v>133.58</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>132.68</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.9000000000000057</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731319469.137966</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731319470.0347056</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319469.137966.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319470.0347056.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6720.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6723</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731319470.0476656</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731319470.4753163</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319470.0476656.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319470.4753163.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6723</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6719.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>3.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731319473.7797883</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731319477.22344</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319473.7797883.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319477.22344.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6741.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6743.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731319483.2614188</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731319486.7392774</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319483.2614188.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319486.7392774.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6813</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6793.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-19.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731319487.2008295</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731319488.131419</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319487.2008295.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319488.131419.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6786.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6791</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731319488.146381</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731319488.146381.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731319488.146381.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6791</v>
       </c>
-      <c r="J17" t="n">
-        <v>6791</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>6804.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731319492.10857</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731319492.573066</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319492.10857.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319492.573066.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>502.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>500.85</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.75</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731319504.9976456</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731319507.7609131</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319504.9976456.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319507.7609131.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>511.1</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>511.9</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731319507.7758627</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731319508.3769486</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319507.7758627.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319508.3769486.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>511.9</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>511.4</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731319508.7908483</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731319509.57312</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319508.7908483.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319509.57312.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>511.6</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>511.85</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731319510.9648519</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731319510.9648519.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731319510.9648519.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>510.8</v>
       </c>
-      <c r="J22" t="n">
-        <v>510.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="L22" t="n">
+        <v>510.1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731319513.692388</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731319514.432847</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319513.692388.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319514.432847.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1023.2</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1024.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731319514.4478347</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731319516.9967291</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319514.4478347.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319516.9967291.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1024.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1027.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731319517.28064</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731319518.1883562</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319517.28064.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319518.1883562.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1035</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1026.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>8.599999999999909</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731319518.5099187</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731319523.4116604</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319518.5099187.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319523.4116604.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1030.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1034.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-3.800000000000182</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731319525.915263</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731319530.851413</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319525.915263.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319530.851413.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1039.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1044.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-5.200000000000045</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731319531.3790016</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731319532.3724952</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319531.3790016.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319532.3724952.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1049.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1041.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>7.600000000000136</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731319533.3066137</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731319533.3066137.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731319533.3066137.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1045.4</v>
       </c>
-      <c r="J29" t="n">
-        <v>1045.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+      <c r="L29" t="n">
+        <v>1048</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.599999999999909</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731319534.5520988</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731319535.3649147</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319534.5520988.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319535.3649147.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>125.14</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>125</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731319535.3798747</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731319537.7974102</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319535.3798747.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319537.7974102.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>125</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>124.98</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731319538.2346187</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731319538.7709131</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319538.2346187.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319538.7709131.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>125.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>125.2</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731319538.7848747</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731319541.9118452</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319538.7848747.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319541.9118452.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>125.2</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>125.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.5999999999999943</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731319547.6584482</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731319549.1658194</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319547.6584482.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319549.1658194.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>126.66</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>127.04</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.3800000000000097</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731319549.1808</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731319554.940095</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319549.1808.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731319554.940095.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>127.04</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>127.28</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731319556.6101208</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731319557.1875427</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731319556.6101208.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731319557.1875427.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>163.34</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>163.08</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731319557.2025058</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731319558.1379108</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731319557.2025058.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731319558.1379108.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>163.08</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>163.66</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731319558.2411425</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731319558.68484</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731319558.2411425.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731319558.68484.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>164.26</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>163.76</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731319561.3875308</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731319562.0728266</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731319561.3875308.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731319562.0728266.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>164.5</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>164.8</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731319578.0527687</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731319579.0212145</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731319578.0527687.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731319579.0212145.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>51.535</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>51.465</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.06999999999999318</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731319579.0361748</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731319580.015504</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731319579.0361748.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731319580.015504.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>51.465</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>51.38</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.08500000000000085</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731319593.0398953</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731319595.9301338</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731319593.0398953.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731319595.9301338.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>51.205</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>51.325</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731319597.2088451</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731319597.2088451.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731319597.2088451.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>51.445</v>
       </c>
-      <c r="J43" t="n">
-        <v>51.445</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>51.51</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.06499999999999773</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731319601.0203767</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731319601.5812113</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319601.0203767.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319601.5812113.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1407.6</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>4.800000000000182</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731319601.5961733</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731319605.0465176</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319601.5961733.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319605.0465176.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1407.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1420</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>12.40000000000009</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731319605.0629156</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731319613.1952918</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319605.0629156.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319613.1952918.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1420</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1419.6</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731319614.958126</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731319616.153592</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319614.958126.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319616.153592.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1420.4</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1419.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.8000000000001819</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731319618.3025396</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731319620.282329</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319618.3025396.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319620.282329.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1418.2</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1420.6</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>2.399999999999864</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731319621.2829034</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731319621.2829034.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731319621.2829034.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1419.8</v>
       </c>
-      <c r="J49" t="n">
-        <v>1419.8</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
+      <c r="L49" t="n">
+        <v>1418.8</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731319622.0491912</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731319622.5709703</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319622.0491912.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319622.5709703.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>60.03</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>59.64</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.3900000000000006</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731319626.5721385</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731319630.9641879</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319626.5721385.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319630.9641879.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>60.5</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>60.91</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731319631.5269616</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731319639.8086507</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319631.5269616.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319639.8086507.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>60.72</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>60.84</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731319639.82458</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731319640.3781128</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319639.82458.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319640.3781128.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>60.84</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>60.8</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731319640.4394267</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731319642.2825022</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319640.4394267.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319642.2825022.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>60.79</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>60.72</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731319642.2984588</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731319643.3348305</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319642.2984588.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731319643.3348305.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>60.72</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>60.67</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731319643.3497934</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731319643.3497934.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731319643.3497934.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>60.67</v>
       </c>
-      <c r="J56" t="n">
-        <v>60.67</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
+      <c r="L56" t="n">
+        <v>60.65</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.02000000000000313</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731319644.677487</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731319645.44693</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731319644.677487.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731319645.44693.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>55.91</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>56.12</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.2100000000000009</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731319645.4628592</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731319652.9555957</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731319645.4628592.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731319652.9555957.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>56.12</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>57.2</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-1.080000000000005</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.92</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731319652.9705539</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731319658.5710678</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731319652.9705539.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731319658.5710678.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>57.2</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>56.96</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.240000000000002</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731319660.5247984</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731319660.5247984.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731319660.5247984.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>56.86</v>
       </c>
-      <c r="J60" t="n">
-        <v>56.86</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
+      <c r="L60" t="n">
+        <v>56.88</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.02000000000000313</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731319671.0941892</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731319676.0635946</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731319671.0941892.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731319676.0635946.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>141.28</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>141.58</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.3000000000000114</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731319684.8941782</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731319686.7914581</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731319684.8941782.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731319686.7914581.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>52.13</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>52.51</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731319686.8492374</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731319688.2060807</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731319686.8492374.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731319688.2060807.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>52.49</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>52.55</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731319702.7122262</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731319704.9330614</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731319702.7122262.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731319704.9330614.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>54.04</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>53.95</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.08999999999999631</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731319706.62259</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731319711.008092</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319706.62259.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319711.008092.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>367.23</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>367.45</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.2199999999999704</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731319711.024049</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731319712.0894003</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319711.024049.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319712.0894003.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>367.45</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>367.51</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731319712.1645231</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731319712.888751</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319712.1645231.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319712.888751.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>367.79</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>367.04</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731319712.9438756</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731319713.3988023</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319712.9438756.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319713.3988023.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>366.98</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>368.28</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>1.299999999999955</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731319725.8326163</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731319726.3019683</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319725.8326163.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319726.3019683.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>374.24</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>375.01</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.7699999999999818</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731319726.4885614</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731319726.4885614.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731319726.4885614.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>374.25</v>
       </c>
-      <c r="J70" t="n">
-        <v>374.25</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
+      <c r="L70" t="n">
+        <v>374.48</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.2300000000000182</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731319727.6119478</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731319728.01024</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731319727.6119478.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/FEES1731319728.01024.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>0.09584000000000001</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>0.0959</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>5.999999999999062e-05</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731319728.079523</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731319728.783595</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/FEES1731319728.079523.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/FEES1731319728.783595.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>0.09618</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>0.09588000000000001</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.0002999999999999947</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731319730.835684</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731319731.795147</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731319730.835684.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/FEES1731319731.795147.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>0.09634000000000001</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.09624000000000001</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.0001000000000000029</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731319731.811107</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731319739.6827412</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731319731.811107.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731319739.6827412.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.09624000000000001</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.09682</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.0005799999999999972</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731319740.183136</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731319741.1359706</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731319740.183136.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731319741.1359706.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.09684000000000001</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.09688000000000001</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-3.999999999999837e-05</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731319745.9014108</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731319746.6562366</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319745.9014108.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319746.6562366.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>2986.3</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>2985.75</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.5500000000001819</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731319746.671197</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731319749.2976136</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319746.671197.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319749.2976136.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>2985.75</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>2995.3</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-9.550000000000182</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731319749.6618688</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731319750.3094156</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319749.6618688.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319750.3094156.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>3003.05</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>2998.7</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>4.350000000000364</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731319750.3582873</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731319754.3046799</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319750.3582873.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319754.3046799.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>3000.45</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>3007.75</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>7.300000000000182</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731319758.5120738</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731319761.129826</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319758.5120738.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319761.129826.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>3013.75</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>3016.35</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>2.599999999999909</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731319761.203084</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731319761.754367</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319761.203084.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319761.754367.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>3018.5</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>3018.6</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.09999999999990905</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731319764.7002373</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731319765.6958597</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319764.7002373.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319765.6958597.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>3015.85</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>3015.95</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.09999999999990905</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731319765.71282</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731319766.1173573</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319765.71282.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319766.1173573.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>3015.95</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>3012</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>3.949999999999818</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731319766.5854692</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731319767.8496706</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319766.5854692.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319767.8496706.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>3013</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>3015.65</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-2.650000000000091</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731319767.9066305</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731319767.9066305.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731319767.9066305.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>3013.35</v>
       </c>
-      <c r="J85" t="n">
-        <v>3013.35</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
+      <c r="L85" t="n">
+        <v>3023.35</v>
+      </c>
+      <c r="M85" t="n">
+        <v>10</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731319768.5481315</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731319769.9922745</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731319768.5481315.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731319769.9922745.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>34.54</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>34.435</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.1049999999999969</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731319770.0082307</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731319773.874967</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731319770.0082307.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731319773.874967.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>34.435</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>34.415</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731319774.2802994</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731319783.0649624</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731319774.2802994.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731319783.0649624.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>34.45</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>34.715</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.2650000000000006</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731319791.3973444</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731319792.0804348</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319791.3973444.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319792.0804348.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>644.9</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>647</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>2.100000000000023</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731319792.095366</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731319794.364603</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319792.095366.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319794.364603.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>647</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>648.7</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-1.700000000000045</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731319795.0317905</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731319798.815692</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319795.0317905.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319798.815692.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>649.6</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>648.5</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>1.100000000000023</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731319804.787149</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731319806.0347984</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319804.787149.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319806.0347984.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>648.9</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>648.8</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731319806.051754</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731319810.9790742</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319806.051754.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319810.9790742.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>648.8</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>640.3</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-8.5</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-1.31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731319811.0299466</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731319812.8961244</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319811.0299466.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319812.8961244.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>640.2</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>639.4</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.8000000000000682</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731319812.913117</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731319812.913117.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731319812.913117.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>639.4</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>639.4</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5001,7 +5860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5025,6 +5884,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5033,11 +5907,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.449999999999818</v>
+        <v>15.44999999999982</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="n">
+        <v>1.544999999999982</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5046,11 +5929,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9400000000000048</v>
+        <v>0.9200000000000017</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.1314285714285717</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5059,11 +5951,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.799999999999727</v>
+        <v>8.399999999999636</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
+      <c r="D4" t="n">
+        <v>1.199999999999948</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5077,6 +5978,15 @@
       <c r="C5" t="n">
         <v>7</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.8714285714285585</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5085,11 +5995,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.120000000000005</v>
+        <v>1.350000000000023</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.2250000000000038</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5098,11 +6017,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.20000000000005</v>
+        <v>20.20000000000005</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
+      <c r="D7" t="n">
+        <v>3.366666666666674</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5116,6 +6044,15 @@
       <c r="C8" t="n">
         <v>6</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.08999999999999631</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5124,11 +6061,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7</v>
+        <v>-20.5</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
+      <c r="D9" t="n">
+        <v>-3.416666666666667</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5142,6 +6088,15 @@
       <c r="C10" t="n">
         <v>5</v>
       </c>
+      <c r="D10" t="n">
+        <v>-7.200000000000262e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.3699999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5150,11 +6105,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.530000000000001</v>
+        <v>0.6299999999999955</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.1259999999999991</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4899999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5163,11 +6127,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.799999999999955</v>
+        <v>3.499999999999943</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5176,11 +6149,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.110000000000007</v>
+        <v>-1.13000000000001</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.2825000000000024</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5189,11 +6171,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1350000000000122</v>
+        <v>0.2000000000000099</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.05000000000000249</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5207,6 +6198,15 @@
       <c r="C15" t="n">
         <v>4</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.4099999999999966</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5215,11 +6215,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.170000000000016</v>
+        <v>0.1300000000000523</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.03250000000001307</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5233,6 +6242,15 @@
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.1366666666666655</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5246,6 +6264,15 @@
       <c r="C18" t="n">
         <v>3</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.1166666666666648</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5259,6 +6286,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5272,6 +6308,11 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
